--- a/GradedExercise.xlsx
+++ b/GradedExercise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christianr/Documents/workspace/swa-en/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christianr/Temp/swa-en-christian-sommer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2C3EAF-E9FE-FC4E-BAFA-77D2E29F8DFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E4B1E6-46DE-7849-BB2A-148990D90066}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7300" yWindow="-19940" windowWidth="30440" windowHeight="18400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="-26740" windowWidth="41020" windowHeight="22120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>It works</t>
   </si>
@@ -170,6 +170,21 @@
   </si>
   <si>
     <t>View component exchangeable</t>
+  </si>
+  <si>
+    <t>Good project description with attached component/class diagram</t>
+  </si>
+  <si>
+    <t>Nice looking application</t>
+  </si>
+  <si>
+    <t>Delete function and profile picture upload implemented</t>
+  </si>
+  <si>
+    <t>80 commits</t>
+  </si>
+  <si>
+    <t>11 tests</t>
   </si>
 </sst>
 </file>
@@ -636,7 +651,7 @@
   <dimension ref="B1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -687,7 +702,10 @@
         <v>27</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
@@ -698,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
@@ -710,11 +728,11 @@
       </c>
       <c r="G6" s="3">
         <f>SUM(G4:G5)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H6" s="3">
         <f>MIN(C6,G6)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
@@ -725,7 +743,7 @@
         <v>19</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -736,7 +754,7 @@
         <v>29</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -747,7 +765,7 @@
         <v>22</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -758,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
@@ -769,7 +787,10 @@
         <v>26</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
@@ -781,11 +802,11 @@
       </c>
       <c r="G13" s="3">
         <f>SUM(G8:G12)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H13" s="3">
         <f>MIN(C13,G13)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
@@ -800,7 +821,10 @@
         <v>3</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="J15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
@@ -811,10 +835,13 @@
         <v>28</v>
       </c>
       <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D17">
         <v>3</v>
       </c>
@@ -822,10 +849,10 @@
         <v>23</v>
       </c>
       <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D18">
         <v>2</v>
       </c>
@@ -833,10 +860,10 @@
         <v>4</v>
       </c>
       <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
@@ -845,14 +872,14 @@
       </c>
       <c r="G19" s="3">
         <f>SUM(G15:G18)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H19" s="3">
         <f>MIN(C19,G19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D21">
         <v>5</v>
       </c>
@@ -860,10 +887,13 @@
         <v>6</v>
       </c>
       <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D22">
         <v>5</v>
       </c>
@@ -874,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
@@ -883,14 +913,14 @@
       </c>
       <c r="G23" s="3">
         <f>SUM(G21:G22)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" s="3">
         <f>MIN(C23,G23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>18</v>
       </c>
@@ -903,10 +933,10 @@
       <c r="G26" s="9"/>
       <c r="H26" s="10">
         <f>SUM(H4:H23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D28">
         <v>5</v>
       </c>
@@ -917,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D29">
         <v>2</v>
       </c>
@@ -928,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
         <v>17</v>
       </c>
@@ -942,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="s">
         <v>9</v>
       </c>
@@ -954,7 +984,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9">
         <f>Bonus-Malus</f>
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
@@ -969,7 +999,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="5">
         <f>1 + TOTAL/10</f>
-        <v>1</v>
+        <v>6.2</v>
       </c>
     </row>
   </sheetData>
